--- a/MetaFeatureList.xlsx
+++ b/MetaFeatureList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkr01/Documents/GitHub/FairMetaCBR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052BE52-AD11-1B47-8A30-583C4FD434F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619876E1-0C94-FE40-BE6B-4F68C9443E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37160" yWindow="6980" windowWidth="27960" windowHeight="21120" xr2:uid="{E5FC14FD-569A-4C7C-8816-2B6A664449F7}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
